--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il10-Il10ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il10-Il10ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.4838375</v>
+        <v>1.4553315</v>
       </c>
       <c r="H2">
-        <v>2.967675</v>
+        <v>2.910663</v>
       </c>
       <c r="I2">
-        <v>0.03456909213758164</v>
+        <v>0.01405135674371917</v>
       </c>
       <c r="J2">
-        <v>0.02354658441407369</v>
+        <v>0.009452451436126601</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.006938333333333334</v>
+        <v>0.0285545</v>
       </c>
       <c r="N2">
-        <v>0.020815</v>
+        <v>0.057109</v>
       </c>
       <c r="O2">
-        <v>5.581492475642685E-05</v>
+        <v>0.0002884847844831485</v>
       </c>
       <c r="P2">
-        <v>5.581973125729165E-05</v>
+        <v>0.0001924351666703221</v>
       </c>
       <c r="Q2">
-        <v>0.0102953591875</v>
+        <v>0.04155626331675</v>
       </c>
       <c r="R2">
-        <v>0.061772155125</v>
+        <v>0.166225053267</v>
       </c>
       <c r="S2">
-        <v>1.929471276557106E-06</v>
+        <v>4.05360262190766E-06</v>
       </c>
       <c r="T2">
-        <v>1.314364014020726E-06</v>
+        <v>1.818984067554148E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.4838375</v>
+        <v>1.4553315</v>
       </c>
       <c r="H3">
-        <v>2.967675</v>
+        <v>2.910663</v>
       </c>
       <c r="I3">
-        <v>0.03456909213758164</v>
+        <v>0.01405135674371917</v>
       </c>
       <c r="J3">
-        <v>0.02354658441407369</v>
+        <v>0.009452451436126601</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.91890666666666</v>
+        <v>0.006938333333333334</v>
       </c>
       <c r="N3">
-        <v>128.75672</v>
+        <v>0.020815</v>
       </c>
       <c r="O3">
-        <v>0.3452580657547115</v>
+        <v>7.009765873466223E-05</v>
       </c>
       <c r="P3">
-        <v>0.3452877976445039</v>
+        <v>7.013847194387496E-05</v>
       </c>
       <c r="Q3">
-        <v>63.684683171</v>
+        <v>0.0100975750575</v>
       </c>
       <c r="R3">
-        <v>382.108099026</v>
+        <v>0.060585450345</v>
       </c>
       <c r="S3">
-        <v>0.01193525788631784</v>
+        <v>9.849672097802209E-07</v>
       </c>
       <c r="T3">
-        <v>0.008130348274385907</v>
+        <v>6.629804998536062E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.4838375</v>
+        <v>1.4553315</v>
       </c>
       <c r="H4">
-        <v>2.967675</v>
+        <v>2.910663</v>
       </c>
       <c r="I4">
-        <v>0.03456909213758164</v>
+        <v>0.01405135674371917</v>
       </c>
       <c r="J4">
-        <v>0.02354658441407369</v>
+        <v>0.009452451436126601</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.032112</v>
+        <v>35.92055633333333</v>
       </c>
       <c r="N4">
-        <v>0.064224</v>
+        <v>107.761669</v>
       </c>
       <c r="O4">
-        <v>0.0002583226803427882</v>
+        <v>0.3629037087792278</v>
       </c>
       <c r="P4">
-        <v>0.0001722299505293442</v>
+        <v>0.3631150034965957</v>
       </c>
       <c r="Q4">
-        <v>0.0476489898</v>
+        <v>52.2763171294245</v>
       </c>
       <c r="R4">
-        <v>0.1905959592</v>
+        <v>313.657902776547</v>
       </c>
       <c r="S4">
-        <v>8.929980537996896E-06</v>
+        <v>0.0050992894756757</v>
       </c>
       <c r="T4">
-        <v>4.055427068770939E-06</v>
+        <v>0.003432326936280512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.4838375</v>
+        <v>1.4553315</v>
       </c>
       <c r="H5">
-        <v>2.967675</v>
+        <v>2.910663</v>
       </c>
       <c r="I5">
-        <v>0.03456909213758164</v>
+        <v>0.01405135674371917</v>
       </c>
       <c r="J5">
-        <v>0.02354658441407369</v>
+        <v>0.009452451436126601</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.332327</v>
+        <v>0.144235</v>
       </c>
       <c r="N5">
-        <v>0.9969809999999999</v>
+        <v>0.28847</v>
       </c>
       <c r="O5">
-        <v>0.002673380710957828</v>
+        <v>0.001457199491846362</v>
       </c>
       <c r="P5">
-        <v>0.002673610929071625</v>
+        <v>0.0009720319481935916</v>
       </c>
       <c r="Q5">
-        <v>0.4931192648625</v>
+        <v>0.2099097389025</v>
       </c>
       <c r="R5">
-        <v>2.958715589175</v>
+        <v>0.83963895561</v>
       </c>
       <c r="S5">
-        <v>9.241634411593466E-05</v>
+        <v>2.047562990669952E-05</v>
       </c>
       <c r="T5">
-        <v>6.295440543177502E-05</v>
+        <v>9.188084784663452E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.4838375</v>
+        <v>1.4553315</v>
       </c>
       <c r="H6">
-        <v>2.967675</v>
+        <v>2.910663</v>
       </c>
       <c r="I6">
-        <v>0.03456909213758164</v>
+        <v>0.01405135674371917</v>
       </c>
       <c r="J6">
-        <v>0.02354658441407369</v>
+        <v>0.009452451436126601</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.01935833333333</v>
+        <v>44.53986366666667</v>
       </c>
       <c r="N6">
-        <v>243.058075</v>
+        <v>133.619591</v>
       </c>
       <c r="O6">
-        <v>0.6517544159292314</v>
+        <v>0.4499841695980372</v>
       </c>
       <c r="P6">
-        <v>0.6518105417446378</v>
+        <v>0.4502461654818904</v>
       </c>
       <c r="Q6">
-        <v>120.2195621209375</v>
+        <v>64.82026659980551</v>
       </c>
       <c r="R6">
-        <v>721.317372725625</v>
+        <v>388.921599598833</v>
       </c>
       <c r="S6">
-        <v>0.0225305584553333</v>
+        <v>0.00632288809604825</v>
       </c>
       <c r="T6">
-        <v>0.01534791194317322</v>
+        <v>0.00425593001351979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.094223666666667</v>
+        <v>1.4553315</v>
       </c>
       <c r="H7">
-        <v>9.282671000000001</v>
+        <v>2.910663</v>
       </c>
       <c r="I7">
-        <v>0.07208639964098879</v>
+        <v>0.01405135674371917</v>
       </c>
       <c r="J7">
-        <v>0.07365199905298724</v>
+        <v>0.009452451436126601</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.006938333333333334</v>
+        <v>18.340809</v>
       </c>
       <c r="N7">
-        <v>0.020815</v>
+        <v>55.022427</v>
       </c>
       <c r="O7">
-        <v>5.581492475642685E-05</v>
+        <v>0.1852963396876706</v>
       </c>
       <c r="P7">
-        <v>5.581973125729165E-05</v>
+        <v>0.1854042254347061</v>
       </c>
       <c r="Q7">
-        <v>0.02146875520722222</v>
+        <v>26.6919570731835</v>
       </c>
       <c r="R7">
-        <v>0.193218796865</v>
+        <v>160.151742439101</v>
       </c>
       <c r="S7">
-        <v>4.023496971923505E-06</v>
+        <v>0.002603664972256828</v>
       </c>
       <c r="T7">
-        <v>4.111234793700046E-06</v>
+        <v>0.001752524436974228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>9.282671000000001</v>
       </c>
       <c r="I8">
-        <v>0.07208639964098879</v>
+        <v>0.02987500826113646</v>
       </c>
       <c r="J8">
-        <v>0.07365199905298724</v>
+        <v>0.03014570797960491</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>42.91890666666666</v>
+        <v>0.0285545</v>
       </c>
       <c r="N8">
-        <v>128.75672</v>
+        <v>0.057109</v>
       </c>
       <c r="O8">
-        <v>0.3452580657547115</v>
+        <v>0.0002884847844831485</v>
       </c>
       <c r="P8">
-        <v>0.3452877976445039</v>
+        <v>0.0001924351666703221</v>
       </c>
       <c r="Q8">
-        <v>132.8006967554578</v>
+        <v>0.08835400968983334</v>
       </c>
       <c r="R8">
-        <v>1195.20627079912</v>
+        <v>0.530124058139</v>
       </c>
       <c r="S8">
-        <v>0.02488841090726892</v>
+        <v>8.618485319646234E-06</v>
       </c>
       <c r="T8">
-        <v>0.02543113654512105</v>
+        <v>5.80109433945013E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>9.282671000000001</v>
       </c>
       <c r="I9">
-        <v>0.07208639964098879</v>
+        <v>0.02987500826113646</v>
       </c>
       <c r="J9">
-        <v>0.07365199905298724</v>
+        <v>0.03014570797960491</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.032112</v>
+        <v>0.006938333333333334</v>
       </c>
       <c r="N9">
-        <v>0.064224</v>
+        <v>0.020815</v>
       </c>
       <c r="O9">
-        <v>0.0002583226803427882</v>
+        <v>7.009765873466223E-05</v>
       </c>
       <c r="P9">
-        <v>0.0001722299505293442</v>
+        <v>7.013847194387496E-05</v>
       </c>
       <c r="Q9">
-        <v>0.099361710384</v>
+        <v>0.02146875520722222</v>
       </c>
       <c r="R9">
-        <v>0.5961702623040001</v>
+        <v>0.193218796865</v>
       </c>
       <c r="S9">
-        <v>1.862155197152163E-05</v>
+        <v>2.094168133784359E-06</v>
       </c>
       <c r="T9">
-        <v>1.268508015328329E-05</v>
+        <v>2.114373893355766E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>9.282671000000001</v>
       </c>
       <c r="I10">
-        <v>0.07208639964098879</v>
+        <v>0.02987500826113646</v>
       </c>
       <c r="J10">
-        <v>0.07365199905298724</v>
+        <v>0.03014570797960491</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.332327</v>
+        <v>35.92055633333333</v>
       </c>
       <c r="N10">
-        <v>0.9969809999999999</v>
+        <v>107.761669</v>
       </c>
       <c r="O10">
-        <v>0.002673380710957828</v>
+        <v>0.3629037087792278</v>
       </c>
       <c r="P10">
-        <v>0.002673610929071625</v>
+        <v>0.3631150034965957</v>
       </c>
       <c r="Q10">
-        <v>1.028294068472333</v>
+        <v>111.1462355264332</v>
       </c>
       <c r="R10">
-        <v>9.254646616251</v>
+        <v>1000.316119737899</v>
       </c>
       <c r="S10">
-        <v>0.0001927143903226167</v>
+        <v>0.01084175129777649</v>
       </c>
       <c r="T10">
-        <v>0.0001969167896160397</v>
+        <v>0.01094635885842159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>9.282671000000001</v>
       </c>
       <c r="I11">
-        <v>0.07208639964098879</v>
+        <v>0.02987500826113646</v>
       </c>
       <c r="J11">
-        <v>0.07365199905298724</v>
+        <v>0.03014570797960491</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>81.01935833333333</v>
+        <v>0.144235</v>
       </c>
       <c r="N11">
-        <v>243.058075</v>
+        <v>0.28847</v>
       </c>
       <c r="O11">
-        <v>0.6517544159292314</v>
+        <v>0.001457199491846362</v>
       </c>
       <c r="P11">
-        <v>0.6518105417446378</v>
+        <v>0.0009720319481935916</v>
       </c>
       <c r="Q11">
-        <v>250.6920160131472</v>
+        <v>0.4462953505616667</v>
       </c>
       <c r="R11">
-        <v>2256.228144118325</v>
+        <v>2.67777210337</v>
       </c>
       <c r="S11">
-        <v>0.04698262929445381</v>
+        <v>4.353384685703391E-05</v>
       </c>
       <c r="T11">
-        <v>0.04800714940330316</v>
+        <v>2.930259125709046E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.74820166666667</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H12">
-        <v>56.244605</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I12">
-        <v>0.4367784955084109</v>
+        <v>0.02987500826113646</v>
       </c>
       <c r="J12">
-        <v>0.4462646143761468</v>
+        <v>0.03014570797960491</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.006938333333333334</v>
+        <v>44.53986366666667</v>
       </c>
       <c r="N12">
-        <v>0.020815</v>
+        <v>133.619591</v>
       </c>
       <c r="O12">
-        <v>5.581492475642685E-05</v>
+        <v>0.4499841695980372</v>
       </c>
       <c r="P12">
-        <v>5.581973125729165E-05</v>
+        <v>0.4502461654818904</v>
       </c>
       <c r="Q12">
-        <v>0.1300812725638889</v>
+        <v>137.8163002675068</v>
       </c>
       <c r="R12">
-        <v>1.170731453075</v>
+        <v>1240.346702407561</v>
       </c>
       <c r="S12">
-        <v>2.437875886202727E-05</v>
+        <v>0.01344328078412199</v>
       </c>
       <c r="T12">
-        <v>2.49103708441154E-05</v>
+        <v>0.01357298942355394</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.74820166666667</v>
+        <v>3.094223666666667</v>
       </c>
       <c r="H13">
-        <v>56.244605</v>
+        <v>9.282671000000001</v>
       </c>
       <c r="I13">
-        <v>0.4367784955084109</v>
+        <v>0.02987500826113646</v>
       </c>
       <c r="J13">
-        <v>0.4462646143761468</v>
+        <v>0.03014570797960491</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.91890666666666</v>
+        <v>18.340809</v>
       </c>
       <c r="N13">
-        <v>128.75672</v>
+        <v>55.022427</v>
       </c>
       <c r="O13">
-        <v>0.3452580657547115</v>
+        <v>0.1852963396876706</v>
       </c>
       <c r="P13">
-        <v>0.3452877976445039</v>
+        <v>0.1854042254347061</v>
       </c>
       <c r="Q13">
-        <v>804.6523174995111</v>
+        <v>56.750565273613</v>
       </c>
       <c r="R13">
-        <v>7241.8708574956</v>
+        <v>510.7550874625171</v>
       </c>
       <c r="S13">
-        <v>0.1508012985224869</v>
+        <v>0.005535729678927508</v>
       </c>
       <c r="T13">
-        <v>0.1540897258646135</v>
+        <v>0.005589141638139488</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.74820166666667</v>
+        <v>22.59400633333333</v>
       </c>
       <c r="H14">
-        <v>56.244605</v>
+        <v>67.78201899999999</v>
       </c>
       <c r="I14">
-        <v>0.4367784955084109</v>
+        <v>0.2181471666486411</v>
       </c>
       <c r="J14">
-        <v>0.4462646143761468</v>
+        <v>0.2201238146910551</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.032112</v>
+        <v>0.0285545</v>
       </c>
       <c r="N14">
-        <v>0.064224</v>
+        <v>0.057109</v>
       </c>
       <c r="O14">
-        <v>0.0002583226803427882</v>
+        <v>0.0002884847844831485</v>
       </c>
       <c r="P14">
-        <v>0.0001722299505293442</v>
+        <v>0.0001924351666703221</v>
       </c>
       <c r="Q14">
-        <v>0.60204225192</v>
+        <v>0.6451605538451666</v>
       </c>
       <c r="R14">
-        <v>3.61225351152</v>
+        <v>3.870963323070999</v>
       </c>
       <c r="S14">
-        <v>0.0001128297916758232</v>
+        <v>6.293213835624272E-05</v>
       </c>
       <c r="T14">
-        <v>7.68601324570006E-05</v>
+        <v>4.235956296818029E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.74820166666667</v>
+        <v>22.59400633333333</v>
       </c>
       <c r="H15">
-        <v>56.244605</v>
+        <v>67.78201899999999</v>
       </c>
       <c r="I15">
-        <v>0.4367784955084109</v>
+        <v>0.2181471666486411</v>
       </c>
       <c r="J15">
-        <v>0.4462646143761468</v>
+        <v>0.2201238146910551</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.332327</v>
+        <v>0.006938333333333334</v>
       </c>
       <c r="N15">
-        <v>0.9969809999999999</v>
+        <v>0.020815</v>
       </c>
       <c r="O15">
-        <v>0.002673380710957828</v>
+        <v>7.009765873466223E-05</v>
       </c>
       <c r="P15">
-        <v>0.002673610929071625</v>
+        <v>7.013847194387496E-05</v>
       </c>
       <c r="Q15">
-        <v>6.230533615278333</v>
+        <v>0.1567647472761111</v>
       </c>
       <c r="R15">
-        <v>56.07480253750499</v>
+        <v>1.410882725485</v>
       </c>
       <c r="S15">
-        <v>0.001167675204853366</v>
+        <v>1.529160564166994E-05</v>
       </c>
       <c r="T15">
-        <v>0.001193137950254</v>
+        <v>1.54391480008873E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.74820166666667</v>
+        <v>22.59400633333333</v>
       </c>
       <c r="H16">
-        <v>56.244605</v>
+        <v>67.78201899999999</v>
       </c>
       <c r="I16">
-        <v>0.4367784955084109</v>
+        <v>0.2181471666486411</v>
       </c>
       <c r="J16">
-        <v>0.4462646143761468</v>
+        <v>0.2201238146910551</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.01935833333333</v>
+        <v>35.92055633333333</v>
       </c>
       <c r="N16">
-        <v>243.058075</v>
+        <v>107.761669</v>
       </c>
       <c r="O16">
-        <v>0.6517544159292314</v>
+        <v>0.3629037087792278</v>
       </c>
       <c r="P16">
-        <v>0.6518105417446378</v>
+        <v>0.3631150034965957</v>
       </c>
       <c r="Q16">
-        <v>1518.967268937264</v>
+        <v>811.5892772921899</v>
       </c>
       <c r="R16">
-        <v>13670.70542043538</v>
+        <v>7304.303495629709</v>
       </c>
       <c r="S16">
-        <v>0.2846723132305328</v>
+        <v>0.07916641583647215</v>
       </c>
       <c r="T16">
-        <v>0.2908799800579781</v>
+        <v>0.07993025974122646</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.2534205</v>
+        <v>22.59400633333333</v>
       </c>
       <c r="H17">
-        <v>2.506841</v>
+        <v>67.78201899999999</v>
       </c>
       <c r="I17">
-        <v>0.02920104711710928</v>
+        <v>0.2181471666486411</v>
       </c>
       <c r="J17">
-        <v>0.01989016425961768</v>
+        <v>0.2201238146910551</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.006938333333333334</v>
+        <v>0.144235</v>
       </c>
       <c r="N17">
-        <v>0.020815</v>
+        <v>0.28847</v>
       </c>
       <c r="O17">
-        <v>5.581492475642685E-05</v>
+        <v>0.001457199491846362</v>
       </c>
       <c r="P17">
-        <v>5.581973125729165E-05</v>
+        <v>0.0009720319481935916</v>
       </c>
       <c r="Q17">
-        <v>0.008696649235833333</v>
+        <v>3.258846503488333</v>
       </c>
       <c r="R17">
-        <v>0.052179895415</v>
+        <v>19.55307902093</v>
       </c>
       <c r="S17">
-        <v>1.629854247650329E-06</v>
+        <v>0.0003178839403881234</v>
       </c>
       <c r="T17">
-        <v>1.110263623635246E-06</v>
+        <v>0.0002139673804379514</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.2534205</v>
+        <v>22.59400633333333</v>
       </c>
       <c r="H18">
-        <v>2.506841</v>
+        <v>67.78201899999999</v>
       </c>
       <c r="I18">
-        <v>0.02920104711710928</v>
+        <v>0.2181471666486411</v>
       </c>
       <c r="J18">
-        <v>0.01989016425961768</v>
+        <v>0.2201238146910551</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.91890666666666</v>
+        <v>44.53986366666667</v>
       </c>
       <c r="N18">
-        <v>128.75672</v>
+        <v>133.619591</v>
       </c>
       <c r="O18">
-        <v>0.3452580657547115</v>
+        <v>0.4499841695980372</v>
       </c>
       <c r="P18">
-        <v>0.3452877976445039</v>
+        <v>0.4502461654818904</v>
       </c>
       <c r="Q18">
-        <v>53.79543745358666</v>
+        <v>1006.33396177047</v>
       </c>
       <c r="R18">
-        <v>322.7726247215199</v>
+        <v>9057.005655934228</v>
       </c>
       <c r="S18">
-        <v>0.01008189704566534</v>
+        <v>0.09816277163455342</v>
       </c>
       <c r="T18">
-        <v>0.006867831011990814</v>
+        <v>0.09910990349589377</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.2534205</v>
+        <v>22.59400633333333</v>
       </c>
       <c r="H19">
-        <v>2.506841</v>
+        <v>67.78201899999999</v>
       </c>
       <c r="I19">
-        <v>0.02920104711710928</v>
+        <v>0.2181471666486411</v>
       </c>
       <c r="J19">
-        <v>0.01989016425961768</v>
+        <v>0.2201238146910551</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.032112</v>
+        <v>18.340809</v>
       </c>
       <c r="N19">
-        <v>0.064224</v>
+        <v>55.022427</v>
       </c>
       <c r="O19">
-        <v>0.0002583226803427882</v>
+        <v>0.1852963396876706</v>
       </c>
       <c r="P19">
-        <v>0.0001722299505293442</v>
+        <v>0.1854042254347061</v>
       </c>
       <c r="Q19">
-        <v>0.040249839096</v>
+        <v>414.3923547044569</v>
       </c>
       <c r="R19">
-        <v>0.160999356384</v>
+        <v>3729.531192340113</v>
       </c>
       <c r="S19">
-        <v>7.543292760107718E-06</v>
+        <v>0.0404218714932295</v>
       </c>
       <c r="T19">
-        <v>3.425682006454483E-06</v>
+        <v>0.04081188536252786</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.2534205</v>
+        <v>1.3348165</v>
       </c>
       <c r="H20">
-        <v>2.506841</v>
+        <v>2.669633</v>
       </c>
       <c r="I20">
-        <v>0.02920104711710928</v>
+        <v>0.01288777356148934</v>
       </c>
       <c r="J20">
-        <v>0.01989016425961768</v>
+        <v>0.008669700437591356</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.332327</v>
+        <v>0.0285545</v>
       </c>
       <c r="N20">
-        <v>0.9969809999999999</v>
+        <v>0.057109</v>
       </c>
       <c r="O20">
-        <v>0.002673380710957828</v>
+        <v>0.0002884847844831485</v>
       </c>
       <c r="P20">
-        <v>0.002673610929071625</v>
+        <v>0.0001924351666703221</v>
       </c>
       <c r="Q20">
-        <v>0.4165454745034999</v>
+        <v>0.03811501774925</v>
       </c>
       <c r="R20">
-        <v>2.499272847020999</v>
+        <v>0.152460070997</v>
       </c>
       <c r="S20">
-        <v>7.806551610265064E-05</v>
+        <v>3.717926578353871E-06</v>
       </c>
       <c r="T20">
-        <v>5.317856054554367E-05</v>
+        <v>1.668355248689657E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.2534205</v>
+        <v>1.3348165</v>
       </c>
       <c r="H21">
-        <v>2.506841</v>
+        <v>2.669633</v>
       </c>
       <c r="I21">
-        <v>0.02920104711710928</v>
+        <v>0.01288777356148934</v>
       </c>
       <c r="J21">
-        <v>0.01989016425961768</v>
+        <v>0.008669700437591356</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>81.01935833333333</v>
+        <v>0.006938333333333334</v>
       </c>
       <c r="N21">
-        <v>243.058075</v>
+        <v>0.020815</v>
       </c>
       <c r="O21">
-        <v>0.6517544159292314</v>
+        <v>7.009765873466223E-05</v>
       </c>
       <c r="P21">
-        <v>0.6518105417446378</v>
+        <v>7.013847194387496E-05</v>
       </c>
       <c r="Q21">
-        <v>101.5513246318458</v>
+        <v>0.009261401815833334</v>
       </c>
       <c r="R21">
-        <v>609.3079477910749</v>
+        <v>0.055568410895</v>
       </c>
       <c r="S21">
-        <v>0.01903191140833353</v>
+        <v>9.03402752962882E-07</v>
       </c>
       <c r="T21">
-        <v>0.01296461874145123</v>
+        <v>6.080795409038018E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.081365333333333</v>
+        <v>1.3348165</v>
       </c>
       <c r="H22">
-        <v>3.244096</v>
+        <v>2.669633</v>
       </c>
       <c r="I22">
-        <v>0.02519266283699305</v>
+        <v>0.01288777356148934</v>
       </c>
       <c r="J22">
-        <v>0.02573980651902881</v>
+        <v>0.008669700437591356</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.006938333333333334</v>
+        <v>35.92055633333333</v>
       </c>
       <c r="N22">
-        <v>0.020815</v>
+        <v>107.761669</v>
       </c>
       <c r="O22">
-        <v>5.581492475642685E-05</v>
+        <v>0.3629037087792278</v>
       </c>
       <c r="P22">
-        <v>5.581973125729165E-05</v>
+        <v>0.3631150034965957</v>
       </c>
       <c r="Q22">
-        <v>0.007502873137777778</v>
+        <v>47.94735128291283</v>
       </c>
       <c r="R22">
-        <v>0.06752585824</v>
+        <v>287.684107697477</v>
       </c>
       <c r="S22">
-        <v>1.406126580660798E-06</v>
+        <v>0.004677020823371359</v>
       </c>
       <c r="T22">
-        <v>1.436789082506872E-06</v>
+        <v>0.003148098304710422</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.081365333333333</v>
+        <v>1.3348165</v>
       </c>
       <c r="H23">
-        <v>3.244096</v>
+        <v>2.669633</v>
       </c>
       <c r="I23">
-        <v>0.02519266283699305</v>
+        <v>0.01288777356148934</v>
       </c>
       <c r="J23">
-        <v>0.02573980651902881</v>
+        <v>0.008669700437591356</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>42.91890666666666</v>
+        <v>0.144235</v>
       </c>
       <c r="N23">
-        <v>128.75672</v>
+        <v>0.28847</v>
       </c>
       <c r="O23">
-        <v>0.3452580657547115</v>
+        <v>0.001457199491846362</v>
       </c>
       <c r="P23">
-        <v>0.3452877976445039</v>
+        <v>0.0009720319481935916</v>
       </c>
       <c r="Q23">
-        <v>46.41101781390222</v>
+        <v>0.1925272578775</v>
       </c>
       <c r="R23">
-        <v>417.69916032512</v>
+        <v>0.7701090315100001</v>
       </c>
       <c r="S23">
-        <v>0.008697970042310823</v>
+        <v>1.878005708483324E-05</v>
       </c>
       <c r="T23">
-        <v>0.0088876411047511</v>
+        <v>8.42722580660676E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.081365333333333</v>
+        <v>1.3348165</v>
       </c>
       <c r="H24">
-        <v>3.244096</v>
+        <v>2.669633</v>
       </c>
       <c r="I24">
-        <v>0.02519266283699305</v>
+        <v>0.01288777356148934</v>
       </c>
       <c r="J24">
-        <v>0.02573980651902881</v>
+        <v>0.008669700437591356</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.032112</v>
+        <v>44.53986366666667</v>
       </c>
       <c r="N24">
-        <v>0.064224</v>
+        <v>133.619591</v>
       </c>
       <c r="O24">
-        <v>0.0002583226803427882</v>
+        <v>0.4499841695980372</v>
       </c>
       <c r="P24">
-        <v>0.0001722299505293442</v>
+        <v>0.4502461654818904</v>
       </c>
       <c r="Q24">
-        <v>0.034724803584</v>
+        <v>59.45254493001718</v>
       </c>
       <c r="R24">
-        <v>0.208348821504</v>
+        <v>356.715269580103</v>
       </c>
       <c r="S24">
-        <v>6.507836189024197E-06</v>
+        <v>0.005799294084034318</v>
       </c>
       <c r="T24">
-        <v>4.433165603407221E-06</v>
+        <v>0.003903499377902175</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.081365333333333</v>
+        <v>1.3348165</v>
       </c>
       <c r="H25">
-        <v>3.244096</v>
+        <v>2.669633</v>
       </c>
       <c r="I25">
-        <v>0.02519266283699305</v>
+        <v>0.01288777356148934</v>
       </c>
       <c r="J25">
-        <v>0.02573980651902881</v>
+        <v>0.008669700437591356</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.332327</v>
+        <v>18.340809</v>
       </c>
       <c r="N25">
-        <v>0.9969809999999999</v>
+        <v>55.022427</v>
       </c>
       <c r="O25">
-        <v>0.002673380710957828</v>
+        <v>0.1852963396876706</v>
       </c>
       <c r="P25">
-        <v>0.002673610929071625</v>
+        <v>0.1854042254347061</v>
       </c>
       <c r="Q25">
-        <v>0.3593668971306666</v>
+        <v>24.4816144765485</v>
       </c>
       <c r="R25">
-        <v>3.234302074176</v>
+        <v>146.889686859291</v>
       </c>
       <c r="S25">
-        <v>6.734957888608135E-05</v>
+        <v>0.002388057267667509</v>
       </c>
       <c r="T25">
-        <v>6.881822802146448E-05</v>
+        <v>0.001607399094382558</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.081365333333333</v>
+        <v>61.29106766666666</v>
       </c>
       <c r="H26">
-        <v>3.244096</v>
+        <v>183.873203</v>
       </c>
       <c r="I26">
-        <v>0.02519266283699305</v>
+        <v>0.5917707800509812</v>
       </c>
       <c r="J26">
-        <v>0.02573980651902881</v>
+        <v>0.5971328600262373</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>81.01935833333333</v>
+        <v>0.0285545</v>
       </c>
       <c r="N26">
-        <v>243.058075</v>
+        <v>0.057109</v>
       </c>
       <c r="O26">
-        <v>0.6517544159292314</v>
+        <v>0.0002884847844831485</v>
       </c>
       <c r="P26">
-        <v>0.6518105417446378</v>
+        <v>0.0001924351666703221</v>
       </c>
       <c r="Q26">
-        <v>87.61152543057777</v>
+        <v>1.750135791687833</v>
       </c>
       <c r="R26">
-        <v>788.5037288752</v>
+        <v>10.500814750127</v>
       </c>
       <c r="S26">
-        <v>0.01641942925302646</v>
+        <v>0.000170716865946432</v>
       </c>
       <c r="T26">
-        <v>0.01677747723157033</v>
+        <v>0.0001149093614434751</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>17.26277166666667</v>
+        <v>61.29106766666666</v>
       </c>
       <c r="H27">
-        <v>51.788315</v>
+        <v>183.873203</v>
       </c>
       <c r="I27">
-        <v>0.4021723027589164</v>
+        <v>0.5917707800509812</v>
       </c>
       <c r="J27">
-        <v>0.4109068313781458</v>
+        <v>0.5971328600262373</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,27 +2117,27 @@
         <v>0.020815</v>
       </c>
       <c r="O27">
-        <v>5.581492475642685E-05</v>
+        <v>7.009765873466223E-05</v>
       </c>
       <c r="P27">
-        <v>5.581973125729165E-05</v>
+        <v>7.013847194387496E-05</v>
       </c>
       <c r="Q27">
-        <v>0.1197748640805556</v>
+        <v>0.4252578578272222</v>
       </c>
       <c r="R27">
-        <v>1.077973776725</v>
+        <v>3.827320720445</v>
       </c>
       <c r="S27">
-        <v>2.244721681760784E-05</v>
+        <v>4.148174618915854E-05</v>
       </c>
       <c r="T27">
-        <v>2.293670889931335E-05</v>
+        <v>4.188198634971606E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>17.26277166666667</v>
+        <v>61.29106766666666</v>
       </c>
       <c r="H28">
-        <v>51.788315</v>
+        <v>183.873203</v>
       </c>
       <c r="I28">
-        <v>0.4021723027589164</v>
+        <v>0.5917707800509812</v>
       </c>
       <c r="J28">
-        <v>0.4109068313781458</v>
+        <v>0.5971328600262373</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>42.91890666666666</v>
+        <v>35.92055633333333</v>
       </c>
       <c r="N28">
-        <v>128.75672</v>
+        <v>107.761669</v>
       </c>
       <c r="O28">
-        <v>0.3452580657547115</v>
+        <v>0.3629037087792278</v>
       </c>
       <c r="P28">
-        <v>0.3452877976445039</v>
+        <v>0.3631150034965957</v>
       </c>
       <c r="Q28">
-        <v>740.8992859696443</v>
+        <v>2201.609248850645</v>
       </c>
       <c r="R28">
-        <v>6668.0935737268</v>
+        <v>19814.4832396558</v>
       </c>
       <c r="S28">
-        <v>0.1388532313506617</v>
+        <v>0.2147558108276778</v>
       </c>
       <c r="T28">
-        <v>0.1418811148436415</v>
+        <v>0.2168279005563594</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>17.26277166666667</v>
+        <v>61.29106766666666</v>
       </c>
       <c r="H29">
-        <v>51.788315</v>
+        <v>183.873203</v>
       </c>
       <c r="I29">
-        <v>0.4021723027589164</v>
+        <v>0.5917707800509812</v>
       </c>
       <c r="J29">
-        <v>0.4109068313781458</v>
+        <v>0.5971328600262373</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,33 +2235,33 @@
         <v>0.5</v>
       </c>
       <c r="M29">
-        <v>0.032112</v>
+        <v>0.144235</v>
       </c>
       <c r="N29">
-        <v>0.064224</v>
+        <v>0.28847</v>
       </c>
       <c r="O29">
-        <v>0.0002583226803427882</v>
+        <v>0.001457199491846362</v>
       </c>
       <c r="P29">
-        <v>0.0001722299505293442</v>
+        <v>0.0009720319481935916</v>
       </c>
       <c r="Q29">
-        <v>0.55434212376</v>
+        <v>8.840317144901666</v>
       </c>
       <c r="R29">
-        <v>3.32605274256</v>
+        <v>53.04190286940999</v>
       </c>
       <c r="S29">
-        <v>0.0001038902272083146</v>
+        <v>0.0008623280799798148</v>
       </c>
       <c r="T29">
-        <v>7.077046324042761E-05</v>
+        <v>0.0005804322172617147</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>17.26277166666667</v>
+        <v>61.29106766666666</v>
       </c>
       <c r="H30">
-        <v>51.788315</v>
+        <v>183.873203</v>
       </c>
       <c r="I30">
-        <v>0.4021723027589164</v>
+        <v>0.5917707800509812</v>
       </c>
       <c r="J30">
-        <v>0.4109068313781458</v>
+        <v>0.5971328600262373</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.332327</v>
+        <v>44.53986366666667</v>
       </c>
       <c r="N30">
-        <v>0.9969809999999999</v>
+        <v>133.619591</v>
       </c>
       <c r="O30">
-        <v>0.002673380710957828</v>
+        <v>0.4499841695980372</v>
       </c>
       <c r="P30">
-        <v>0.002673610929071625</v>
+        <v>0.4502461654818904</v>
       </c>
       <c r="Q30">
-        <v>5.736885119668333</v>
+        <v>2729.895797857775</v>
       </c>
       <c r="R30">
-        <v>51.63196607701499</v>
+        <v>24569.06218071998</v>
       </c>
       <c r="S30">
-        <v>0.001075159676677179</v>
+        <v>0.2662874830536234</v>
       </c>
       <c r="T30">
-        <v>0.001098604995202802</v>
+        <v>0.2688567805100477</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>17.26277166666667</v>
+        <v>61.29106766666666</v>
       </c>
       <c r="H31">
-        <v>51.788315</v>
+        <v>183.873203</v>
       </c>
       <c r="I31">
-        <v>0.4021723027589164</v>
+        <v>0.5917707800509812</v>
       </c>
       <c r="J31">
-        <v>0.4109068313781458</v>
+        <v>0.5971328600262373</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>81.01935833333333</v>
+        <v>18.340809</v>
       </c>
       <c r="N31">
-        <v>243.058075</v>
+        <v>55.022427</v>
       </c>
       <c r="O31">
-        <v>0.6517544159292314</v>
+        <v>0.1852963396876706</v>
       </c>
       <c r="P31">
-        <v>0.6518105417446378</v>
+        <v>0.1854042254347061</v>
       </c>
       <c r="Q31">
-        <v>1398.618683488181</v>
+        <v>1124.127765480409</v>
       </c>
       <c r="R31">
-        <v>12587.56815139363</v>
+        <v>10117.14988932368</v>
       </c>
       <c r="S31">
-        <v>0.2621175742875516</v>
+        <v>0.1096529594775644</v>
       </c>
       <c r="T31">
-        <v>0.2678334043671617</v>
+        <v>0.1107109553947753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.802866</v>
+      </c>
+      <c r="H32">
+        <v>41.408598</v>
+      </c>
+      <c r="I32">
+        <v>0.1332679147340328</v>
+      </c>
+      <c r="J32">
+        <v>0.1344754654293847</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.0285545</v>
+      </c>
+      <c r="N32">
+        <v>0.057109</v>
+      </c>
+      <c r="O32">
+        <v>0.0002884847844831485</v>
+      </c>
+      <c r="P32">
+        <v>0.0001924351666703221</v>
+      </c>
+      <c r="Q32">
+        <v>0.394133937197</v>
+      </c>
+      <c r="R32">
+        <v>2.364803623182</v>
+      </c>
+      <c r="S32">
+        <v>3.844576566056607E-05</v>
+      </c>
+      <c r="T32">
+        <v>2.587780860297278E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.802866</v>
+      </c>
+      <c r="H33">
+        <v>41.408598</v>
+      </c>
+      <c r="I33">
+        <v>0.1332679147340328</v>
+      </c>
+      <c r="J33">
+        <v>0.1344754654293847</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.006938333333333334</v>
+      </c>
+      <c r="N33">
+        <v>0.020815</v>
+      </c>
+      <c r="O33">
+        <v>7.009765873466223E-05</v>
+      </c>
+      <c r="P33">
+        <v>7.013847194387496E-05</v>
+      </c>
+      <c r="Q33">
+        <v>0.09576888526333334</v>
+      </c>
+      <c r="R33">
+        <v>0.86191996737</v>
+      </c>
+      <c r="S33">
+        <v>9.341768807306294E-06</v>
+      </c>
+      <c r="T33">
+        <v>9.431903659158424E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.802866</v>
+      </c>
+      <c r="H34">
+        <v>41.408598</v>
+      </c>
+      <c r="I34">
+        <v>0.1332679147340328</v>
+      </c>
+      <c r="J34">
+        <v>0.1344754654293847</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>35.92055633333333</v>
+      </c>
+      <c r="N34">
+        <v>107.761669</v>
+      </c>
+      <c r="O34">
+        <v>0.3629037087792278</v>
+      </c>
+      <c r="P34">
+        <v>0.3631150034965957</v>
+      </c>
+      <c r="Q34">
+        <v>495.8066257144513</v>
+      </c>
+      <c r="R34">
+        <v>4462.259631430061</v>
+      </c>
+      <c r="S34">
+        <v>0.0483634205182544</v>
+      </c>
+      <c r="T34">
+        <v>0.04883005909959735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.802866</v>
+      </c>
+      <c r="H35">
+        <v>41.408598</v>
+      </c>
+      <c r="I35">
+        <v>0.1332679147340328</v>
+      </c>
+      <c r="J35">
+        <v>0.1344754654293847</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.144235</v>
+      </c>
+      <c r="N35">
+        <v>0.28847</v>
+      </c>
+      <c r="O35">
+        <v>0.001457199491846362</v>
+      </c>
+      <c r="P35">
+        <v>0.0009720319481935916</v>
+      </c>
+      <c r="Q35">
+        <v>1.99085637751</v>
+      </c>
+      <c r="R35">
+        <v>11.94513826506</v>
+      </c>
+      <c r="S35">
+        <v>0.0001941979376298568</v>
+      </c>
+      <c r="T35">
+        <v>0.0001307144486455648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.802866</v>
+      </c>
+      <c r="H36">
+        <v>41.408598</v>
+      </c>
+      <c r="I36">
+        <v>0.1332679147340328</v>
+      </c>
+      <c r="J36">
+        <v>0.1344754654293847</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>44.53986366666667</v>
+      </c>
+      <c r="N36">
+        <v>133.619591</v>
+      </c>
+      <c r="O36">
+        <v>0.4499841695980372</v>
+      </c>
+      <c r="P36">
+        <v>0.4502461654818904</v>
+      </c>
+      <c r="Q36">
+        <v>614.7777698492687</v>
+      </c>
+      <c r="R36">
+        <v>5532.999928643419</v>
+      </c>
+      <c r="S36">
+        <v>0.05996845194565577</v>
+      </c>
+      <c r="T36">
+        <v>0.06054706266097297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.802866</v>
+      </c>
+      <c r="H37">
+        <v>41.408598</v>
+      </c>
+      <c r="I37">
+        <v>0.1332679147340328</v>
+      </c>
+      <c r="J37">
+        <v>0.1344754654293847</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>18.340809</v>
+      </c>
+      <c r="N37">
+        <v>55.022427</v>
+      </c>
+      <c r="O37">
+        <v>0.1852963396876706</v>
+      </c>
+      <c r="P37">
+        <v>0.1854042254347061</v>
+      </c>
+      <c r="Q37">
+        <v>253.155728958594</v>
+      </c>
+      <c r="R37">
+        <v>2278.401560627346</v>
+      </c>
+      <c r="S37">
+        <v>0.02469405679802486</v>
+      </c>
+      <c r="T37">
+        <v>0.02493231950790667</v>
       </c>
     </row>
   </sheetData>
